--- a/Curation/Media/KBASE_MEDIAS/HMBamisug.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/HMBamisug.xlsx
@@ -711,7 +711,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -731,7 +731,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -751,7 +751,7 @@
         <v>-100</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -771,7 +771,7 @@
         <v>-100</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -791,7 +791,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -811,7 +811,7 @@
         <v>-100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0.001</v>
@@ -831,7 +831,7 @@
         <v>-100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0.001</v>
@@ -851,7 +851,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -871,7 +871,7 @@
         <v>-100</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0.001</v>
@@ -911,7 +911,7 @@
         <v>-100</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>0.001</v>
@@ -931,7 +931,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -951,7 +951,7 @@
         <v>-100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0.001</v>
@@ -971,7 +971,7 @@
         <v>-100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0.001</v>
@@ -1051,7 +1051,7 @@
         <v>-100</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0.001</v>
@@ -1071,7 +1071,7 @@
         <v>-100</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0.001</v>
@@ -1151,7 +1151,7 @@
         <v>-100</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>0.001</v>
@@ -1171,7 +1171,7 @@
         <v>-100</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>0.001</v>
@@ -1191,7 +1191,7 @@
         <v>-100</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>0.001</v>
@@ -1231,7 +1231,7 @@
         <v>-100</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>0.001</v>
@@ -1291,7 +1291,7 @@
         <v>-100</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <v>0.001</v>
